--- a/data_output/prism_passive/all_passive_out_elong_GMtend_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_GMtend_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>17.460766272980379</v>
+        <v>17.460766322496738</v>
       </c>
       <c r="C2">
-        <v>4.3584003864622503</v>
+        <v>4.3584003953889123</v>
       </c>
       <c r="D2">
-        <v>24.79537915853831</v>
+        <v>24.795379206512933</v>
       </c>
       <c r="E2">
-        <v>6.183452746190909</v>
+        <v>6.1834527856508714</v>
       </c>
       <c r="F2">
-        <v>42.333197756902422</v>
+        <v>42.333197764469531</v>
       </c>
       <c r="G2">
-        <v>11.57593854618392</v>
+        <v>11.57593860539842</v>
       </c>
       <c r="H2">
-        <v>-4.1001513773385909</v>
+        <v>-4.100151345468305</v>
       </c>
       <c r="I2">
-        <v>10.949468629295296</v>
+        <v>10.949468653949282</v>
       </c>
       <c r="J2">
-        <v>9.0550647553055228</v>
+        <v>9.0550648142711623</v>
       </c>
       <c r="K2">
-        <v>-8.7735174488657037</v>
+        <v>-8.7735174136021215</v>
       </c>
       <c r="L2">
-        <v>9.5359128245720797</v>
+        <v>9.5359128845552448</v>
       </c>
       <c r="M2">
-        <v>4.8791848848290726</v>
+        <v>4.8791849259089872</v>
       </c>
       <c r="N2">
-        <v>0.57986553751561587</v>
+        <v>0.57986560964403111</v>
       </c>
       <c r="O2">
-        <v>7.9019842946274252</v>
+        <v>7.9019843333225595</v>
       </c>
       <c r="P2">
-        <v>11.169136372810442</v>
+        <v>11.169136415618141</v>
       </c>
       <c r="Q2">
-        <v>2.6269790252160874</v>
+        <v>2.6269790673494526</v>
       </c>
       <c r="R2">
-        <v>2.0966420707159159</v>
+        <v>2.0966420936930206</v>
       </c>
       <c r="S2">
-        <v>14.126519830511285</v>
+        <v>14.126519880503139</v>
       </c>
       <c r="T2">
-        <v>-7.8982191716339685</v>
+        <v>-7.8982191292596724</v>
       </c>
       <c r="U2">
-        <v>-5.1067332365875018</v>
+        <v>-5.1067332109159622</v>
       </c>
       <c r="V2">
-        <v>-3.1368155143387071</v>
+        <v>-3.136815467513685</v>
       </c>
       <c r="W2">
-        <v>15.131221027542466</v>
+        <v>15.131221076948947</v>
       </c>
       <c r="X2">
-        <v>-4.485440399642215</v>
+        <v>-4.4854403763428934</v>
       </c>
       <c r="Y2">
-        <v>-8.1227257185561541</v>
+        <v>-8.1227256844185263</v>
       </c>
       <c r="Z2">
-        <v>6.1421303610046607E-2</v>
+        <v>6.142132366937858E-2</v>
       </c>
       <c r="AA2">
-        <v>7.5016456149854207</v>
+        <v>7.5016457280504198</v>
       </c>
       <c r="AB2">
-        <v>5.543956028377238</v>
+        <v>5.5439560596146578</v>
       </c>
       <c r="AC2">
-        <v>10.232280690264588</v>
+        <v>10.232280709498298</v>
       </c>
       <c r="AD2">
-        <v>5.1626744637675586</v>
+        <v>5.1626745030658299</v>
       </c>
       <c r="AE2">
-        <v>-3.095631704789696</v>
+        <v>-3.0956316784870808</v>
       </c>
       <c r="AF2">
-        <v>0.79112995214177317</v>
+        <v>0.79112998587953598</v>
       </c>
       <c r="AG2">
-        <v>4.1917609432191796</v>
+        <v>4.1917609739455486</v>
       </c>
       <c r="AH2">
-        <v>3.7663440656039597</v>
+        <v>3.7663441012634848</v>
       </c>
       <c r="AI2">
-        <v>33.658640394654611</v>
+        <v>33.658640437304825</v>
       </c>
       <c r="AJ2">
-        <v>7.1509586458262504</v>
+        <v>7.1509586908372853</v>
       </c>
       <c r="AK2">
-        <v>7.9549741942966534</v>
+        <v>7.9549742558751291</v>
       </c>
       <c r="AL2">
-        <v>-7.5170117315884113</v>
+        <v>-7.5170116800129847</v>
       </c>
       <c r="AM2">
-        <v>2.155208542764683</v>
+        <v>2.1552086020582522</v>
       </c>
       <c r="AN2">
-        <v>1.9832305766025513</v>
+        <v>1.9832306210083459</v>
       </c>
       <c r="AO2">
-        <v>-3.9763615708626219</v>
+        <v>-3.9763615198924924</v>
       </c>
       <c r="AP2">
-        <v>2.1294655724105382</v>
+        <v>2.1294656084004089</v>
       </c>
       <c r="AQ2">
-        <v>1.933826213282515</v>
+        <v>1.933826288135009</v>
       </c>
       <c r="AR2">
-        <v>4.893938521046806</v>
+        <v>4.8939385339980106</v>
       </c>
       <c r="AS2">
-        <v>-1.4088647011456601</v>
+        <v>-1.4088646403200471</v>
       </c>
       <c r="AT2">
-        <v>-4.5825179401501259</v>
+        <v>-4.5825179046690607</v>
       </c>
       <c r="AU2">
-        <v>-0.26663603480022857</v>
+        <v>-0.26663600800688414</v>
       </c>
       <c r="AV2">
-        <v>6.281962451735069</v>
+        <v>6.2819625284052165</v>
       </c>
       <c r="AW2">
-        <v>-2.6092536148206023</v>
+        <v>-2.6092535589464489</v>
       </c>
       <c r="AX2">
-        <v>-3.509400843697108</v>
+        <v>-3.5094007769152711</v>
       </c>
       <c r="AY2">
-        <v>-2.3733183865646481</v>
+        <v>-2.3733183440437813</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>15.859095338223113</v>
+        <v>15.859095376890963</v>
       </c>
       <c r="C3">
-        <v>7.0569100645505785</v>
+        <v>7.0569100836727046</v>
       </c>
       <c r="D3">
-        <v>-6.7188877801612534</v>
+        <v>-6.7188877525234716</v>
       </c>
       <c r="E3">
-        <v>-10.807346281914306</v>
+        <v>-10.80734626265874</v>
       </c>
       <c r="F3">
-        <v>18.915983513209426</v>
+        <v>18.915983541132675</v>
       </c>
       <c r="G3">
-        <v>1.3657635243210393</v>
+        <v>1.3657635398438117</v>
       </c>
       <c r="H3">
-        <v>3.8221530857240111</v>
+        <v>3.8221531371729043</v>
       </c>
       <c r="I3">
-        <v>2.1082854435393301</v>
+        <v>2.1082854714964583</v>
       </c>
       <c r="J3">
-        <v>3.9653236761669746</v>
+        <v>3.9653237076587402</v>
       </c>
       <c r="K3">
-        <v>18.750961550671178</v>
+        <v>18.750961584047872</v>
       </c>
       <c r="L3">
-        <v>-1.0448556641530331</v>
+        <v>-1.0448556294869888</v>
       </c>
       <c r="M3">
-        <v>5.141953949350949</v>
+        <v>5.1420530975302938</v>
       </c>
       <c r="N3">
-        <v>1.9042319813607378</v>
+        <v>1.904232032008025</v>
       </c>
       <c r="O3">
-        <v>6.8979007887781165</v>
+        <v>6.8979008167237339</v>
       </c>
       <c r="P3">
-        <v>-32.274139722369114</v>
+        <v>-32.274139683401188</v>
       </c>
       <c r="Q3">
-        <v>1.8444734476332769</v>
+        <v>1.8444734822225826</v>
       </c>
       <c r="R3">
-        <v>13.079337193698848</v>
+        <v>13.079337228231111</v>
       </c>
       <c r="S3">
-        <v>13.411897194574635</v>
+        <v>13.41189721667817</v>
       </c>
       <c r="T3">
-        <v>13.1624541417182</v>
+        <v>13.162454174397766</v>
       </c>
       <c r="U3">
-        <v>-3.5464232586950288</v>
+        <v>-3.5464232420107749</v>
       </c>
       <c r="V3">
-        <v>-9.4842855515066162</v>
+        <v>-9.4842855321469699</v>
       </c>
       <c r="W3">
-        <v>5.9788137452017054E-3</v>
+        <v>5.9788904621314032E-3</v>
       </c>
       <c r="X3">
-        <v>14.083143935035224</v>
+        <v>14.083143985370299</v>
       </c>
       <c r="Y3">
-        <v>8.7881607157761437</v>
+        <v>8.7881607445471843</v>
       </c>
       <c r="Z3">
-        <v>-5.2320597106515834</v>
+        <v>-5.2320596866972267</v>
       </c>
       <c r="AA3">
-        <v>3.7487743587891771</v>
+        <v>3.7487744068994004</v>
       </c>
       <c r="AB3">
-        <v>8.1710186262690456</v>
+        <v>8.1710186738415587</v>
       </c>
       <c r="AC3">
-        <v>3.0785852696085101</v>
+        <v>3.0785853261525915</v>
       </c>
       <c r="AD3">
-        <v>-0.22285259858725226</v>
+        <v>-0.22285253105329161</v>
       </c>
       <c r="AE3">
-        <v>-0.36061064001324894</v>
+        <v>-0.36061064156996281</v>
       </c>
       <c r="AF3">
-        <v>3.5463673182480022</v>
+        <v>3.5463673697808531</v>
       </c>
       <c r="AG3">
-        <v>6.1067372047022559</v>
+        <v>6.1067372654886469</v>
       </c>
       <c r="AH3">
-        <v>3.4367475091783888</v>
+        <v>3.4367475380555277</v>
       </c>
       <c r="AI3">
-        <v>8.5022621714707043</v>
+        <v>8.5022622265958319</v>
       </c>
       <c r="AJ3">
-        <v>-0.77236309702459494</v>
+        <v>-0.77236303492179559</v>
       </c>
       <c r="AK3">
-        <v>12.533137170670756</v>
+        <v>12.533137191558097</v>
       </c>
       <c r="AL3">
-        <v>-5.604802983546108</v>
+        <v>-5.6048029390457543</v>
       </c>
       <c r="AM3">
-        <v>3.1872130307358475</v>
+        <v>3.1872131121046436</v>
       </c>
       <c r="AN3">
-        <v>12.786283220912679</v>
+        <v>12.786283271062075</v>
       </c>
       <c r="AO3">
-        <v>22.029259071438474</v>
+        <v>22.029259152321401</v>
       </c>
       <c r="AP3">
-        <v>-8.1604549030284659</v>
+        <v>-8.1604548483403505</v>
       </c>
       <c r="AQ3">
-        <v>-3.3356276214445018</v>
+        <v>-3.3356275767580996</v>
       </c>
       <c r="AR3">
-        <v>0.42981614914043575</v>
+        <v>0.42981618426441059</v>
       </c>
       <c r="AS3">
-        <v>13.011285845343423</v>
+        <v>13.011285885516713</v>
       </c>
       <c r="AT3">
-        <v>-0.39059767279223934</v>
+        <v>-0.3905976120939556</v>
       </c>
       <c r="AU3">
-        <v>-2.2758759253000846</v>
+        <v>-2.2758758579772405</v>
       </c>
       <c r="AV3">
-        <v>-2.7826094624387849</v>
+        <v>-2.7826094192307096</v>
       </c>
       <c r="AW3">
-        <v>2.3907032096133207E-2</v>
+        <v>2.3907105430055253E-2</v>
       </c>
       <c r="AX3">
-        <v>-30.72122429018782</v>
+        <v>-30.721224242060742</v>
       </c>
       <c r="AY3">
-        <v>-17.677348519722415</v>
+        <v>-17.677348489273925</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_elong_GMtend_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_GMtend_submax_2.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,310 +401,304 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>17.460766322496738</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>4.3584003953889123</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>24.795379206512933</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>6.1834527856508714</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>42.333197764469531</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>11.57593860539842</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-4.100151345468305</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>10.949468653949282</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>9.0550648142711623</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>-8.7735174136021215</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>9.5359128845552448</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>4.8791849259089872</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.57986560964403111</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>7.9019843333225595</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>11.169136415618141</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>2.6269790673494526</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>2.0966420936930206</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>14.126519880503139</v>
+        <v>14.126553210503147</v>
       </c>
       <c r="T2">
-        <v>-7.8982191292596724</v>
+        <v>-7.8981857992596645</v>
       </c>
       <c r="U2">
-        <v>-5.1067332109159622</v>
+        <v>-5.1066998809159543</v>
       </c>
       <c r="V2">
-        <v>-3.136815467513685</v>
+        <v>-3.1367821375137055</v>
       </c>
       <c r="W2">
-        <v>15.131221076948947</v>
+        <v>15.131254406948926</v>
       </c>
       <c r="X2">
-        <v>-4.4854403763428934</v>
+        <v>-4.4854737063429013</v>
       </c>
       <c r="Y2">
-        <v>-8.1227256844185263</v>
+        <v>-8.1227590144185342</v>
       </c>
       <c r="Z2">
-        <v>6.142132366937858E-2</v>
+        <v>6.1387993669370644E-2</v>
       </c>
       <c r="AA2">
-        <v>7.5016457280504198</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>5.5439560596146578</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>10.232280709498298</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>5.1626745030658299</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>-3.0956316784870808</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.79112998587953598</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>4.1917609739455486</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>3.7663441012634848</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>33.658640437304825</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>7.1509586908372853</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>7.9549742558751291</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>-7.5170116800129847</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>2.1552086020582522</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>1.9832306210083459</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>-3.9763615198924924</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.1294656084004089</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>1.933826288135009</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>4.8939385339980106</v>
+        <v>4.8939718639980185</v>
       </c>
       <c r="AS2">
-        <v>-1.4088646403200471</v>
+        <v>-1.4088313103200676</v>
       </c>
       <c r="AT2">
         <v>-4.5825179046690607</v>
       </c>
       <c r="AU2">
-        <v>-0.26663600800688414</v>
+        <v>-0.2666026780068762</v>
       </c>
       <c r="AV2">
         <v>6.2819625284052165</v>
       </c>
       <c r="AW2">
-        <v>-2.6092535589464489</v>
+        <v>-2.6092868889464569</v>
       </c>
       <c r="AX2">
-        <v>-3.5094007769152711</v>
+        <v>-3.5094341069152506</v>
       </c>
       <c r="AY2">
         <v>-2.3733183440437813</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>15.859095376890963</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>7.0569100836727046</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>-6.7188877525234716</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>-10.80734626265874</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>18.915983541132675</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1.3657635398438117</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>3.8221531371729043</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>2.1082854714964583</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>3.9653237076587402</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>18.750961584047872</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>-1.0448556294869888</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>5.1420530975302938</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.904232032008025</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>6.8979008167237339</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>-32.274139683401188</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.8444734822225826</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>13.079337228231111</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>13.41189721667817</v>
       </c>
       <c r="T3">
-        <v>13.162454174397766</v>
+        <v>13.162487504397774</v>
       </c>
       <c r="U3">
-        <v>-3.5464232420107749</v>
+        <v>-3.5463899120107669</v>
       </c>
       <c r="V3">
-        <v>-9.4842855321469699</v>
+        <v>-9.4842522021469904</v>
       </c>
       <c r="W3">
-        <v>5.9788904621314032E-3</v>
+        <v>6.0122204621393394E-3</v>
       </c>
       <c r="X3">
-        <v>14.083143985370299</v>
+        <v>14.083177315370307</v>
       </c>
       <c r="Y3">
-        <v>8.7881607445471843</v>
+        <v>8.7881274145472048</v>
       </c>
       <c r="Z3">
-        <v>-5.2320596866972267</v>
+        <v>-5.2320930166972346</v>
       </c>
       <c r="AA3">
-        <v>3.7487744068994004</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>8.1710186738415587</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>3.0785853261525915</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>-0.22285253105329161</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>-0.36061064156996281</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>3.5463673697808531</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>6.1067372654886469</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>3.4367475380555277</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>8.5022622265958319</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.77236303492179559</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>12.533137191558097</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>-5.6048029390457543</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>3.1872131121046436</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>12.786283271062075</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>22.029259152321401</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-8.1604548483403505</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>-3.3356275767580996</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.42981618426441059</v>
+        <v>0.42984951426439011</v>
       </c>
       <c r="AS3">
         <v>13.011285885516713</v>
       </c>
       <c r="AT3">
-        <v>-0.3905976120939556</v>
+        <v>-0.39056428209394767</v>
       </c>
       <c r="AU3">
-        <v>-2.2758758579772405</v>
+        <v>-2.2758425279772325</v>
       </c>
       <c r="AV3">
-        <v>-2.7826094192307096</v>
+        <v>-2.7826427492307175</v>
       </c>
       <c r="AW3">
-        <v>2.3907105430055253E-2</v>
+        <v>2.3940435430063189E-2</v>
       </c>
       <c r="AX3">
-        <v>-30.721224242060742</v>
+        <v>-30.721257572060722</v>
       </c>
       <c r="AY3">
         <v>-17.677348489273925</v>

--- a/data_output/prism_passive/all_passive_out_elong_GMtend_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_GMtend_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>17.460799602980387</v>
+        <v>7.9019510033225515</v>
       </c>
       <c r="C2">
-        <v>2.8217003864622541</v>
+        <v>2.0966754236930001</v>
       </c>
       <c r="D2">
-        <v>24.79537915853831</v>
+        <v>1.983197291008338</v>
       </c>
       <c r="E2">
-        <v>-1.1299139238091129</v>
+        <v>1.933826288135009</v>
       </c>
       <c r="F2">
         <v>42.33323108690243</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>15.859095338223113</v>
+        <v>6.8979008167237339</v>
       </c>
       <c r="C3">
-        <v>0.41694339455057161</v>
+        <v>13.079370558231119</v>
       </c>
       <c r="D3">
-        <v>-6.7188544501612739</v>
+        <v>12.786249941062096</v>
       </c>
       <c r="E3">
-        <v>-10.807312951914298</v>
+        <v>-3.4107221288695655</v>
       </c>
       <c r="F3">
         <v>18.915950183209418</v>

--- a/data_output/prism_passive/all_passive_out_elong_GMtend_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_GMtend_submax_2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>17.460799602980387</v>
+        <v>36.719898939644025</v>
       </c>
       <c r="C2">
-        <v>2.8217003864622541</v>
+        <v>7.9019510033225515</v>
       </c>
       <c r="D2">
-        <v>24.79537915853831</v>
+        <v>11.458541932058267</v>
       </c>
       <c r="E2">
-        <v>-1.1299139238091129</v>
+        <v>1.983197291008338</v>
       </c>
       <c r="F2">
         <v>42.33323108690243</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>15.859095338223113</v>
+        <v>52.404265362008033</v>
       </c>
       <c r="C3">
-        <v>0.41694339455057161</v>
+        <v>6.8979008167237339</v>
       </c>
       <c r="D3">
-        <v>-6.7188544501612739</v>
+        <v>-10.319453557895372</v>
       </c>
       <c r="E3">
-        <v>-10.807312951914298</v>
+        <v>12.786249941062096</v>
       </c>
       <c r="F3">
         <v>18.915950183209418</v>

--- a/data_output/prism_passive/all_passive_out_elong_GMtend_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_GMtend_submax_2.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>17.460799652496746</v>
+      </c>
+      <c r="C2">
+        <v>2.8217003953889161</v>
+      </c>
+      <c r="D2">
+        <v>24.795379206512933</v>
+      </c>
+      <c r="E2">
+        <v>-1.1299138843491505</v>
+      </c>
+      <c r="F2">
+        <v>42.333231094469539</v>
+      </c>
+      <c r="G2">
+        <v>11.5759719353984</v>
+      </c>
+      <c r="H2">
+        <v>-4.1001846754682845</v>
+      </c>
+      <c r="I2">
+        <v>10.94950198394929</v>
+      </c>
+      <c r="J2">
+        <v>9.0550314842711828</v>
+      </c>
+      <c r="K2">
+        <v>-8.7735507436021294</v>
+      </c>
+      <c r="L2">
+        <v>9.5359462145552527</v>
+      </c>
+      <c r="M2">
+        <v>4.8791515959090077</v>
+      </c>
+      <c r="N2">
         <v>36.719898939644025</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>7.9019510033225515</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>11.169136415618141</v>
+      </c>
+      <c r="Q2">
+        <v>-29.029654262650524</v>
+      </c>
+      <c r="R2">
+        <v>2.0966754236930001</v>
+      </c>
+      <c r="S2">
+        <v>14.126553210503147</v>
+      </c>
+      <c r="T2">
+        <v>-7.8981857992596645</v>
+      </c>
+      <c r="U2">
+        <v>-5.1066998809159543</v>
+      </c>
+      <c r="V2">
+        <v>-3.1367821375137055</v>
+      </c>
+      <c r="W2">
+        <v>15.131254406948926</v>
+      </c>
+      <c r="X2">
+        <v>-4.4854737063429013</v>
+      </c>
+      <c r="Y2">
+        <v>-8.1227590144185342</v>
+      </c>
+      <c r="Z2">
+        <v>6.1387993669370644E-2</v>
+      </c>
+      <c r="AA2">
+        <v>7.5016123980504119</v>
+      </c>
+      <c r="AB2">
+        <v>34.627289389614674</v>
+      </c>
+      <c r="AC2">
+        <v>10.232247379498318</v>
+      </c>
+      <c r="AD2">
+        <v>12.709341173065809</v>
+      </c>
+      <c r="AE2">
+        <v>-3.0956316784870808</v>
+      </c>
+      <c r="AF2">
+        <v>0.79116331587954392</v>
+      </c>
+      <c r="AG2">
+        <v>4.1917609739455486</v>
+      </c>
+      <c r="AH2">
+        <v>3.7663774312634928</v>
+      </c>
+      <c r="AI2">
+        <v>33.658673767304805</v>
+      </c>
+      <c r="AJ2">
+        <v>7.1509253608373058</v>
+      </c>
+      <c r="AK2">
+        <v>7.9549409258751496</v>
+      </c>
+      <c r="AL2">
+        <v>-7.5170116800129847</v>
+      </c>
+      <c r="AM2">
         <v>11.458541932058267</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>1.983197291008338</v>
       </c>
-      <c r="F2">
-        <v>42.33323108690243</v>
-      </c>
-      <c r="G2">
-        <v>11.5759718761839</v>
-      </c>
-      <c r="H2">
-        <v>-4.1001847073385704</v>
-      </c>
-      <c r="I2">
-        <v>10.949501959295304</v>
-      </c>
-      <c r="J2">
-        <v>9.0550314253055433</v>
-      </c>
-      <c r="K2">
-        <v>-8.7735507788657117</v>
-      </c>
-      <c r="L2">
-        <v>9.5359461545720876</v>
-      </c>
-      <c r="M2">
-        <v>4.8791515548290931</v>
-      </c>
-      <c r="N2">
-        <v>36.71989886751561</v>
-      </c>
-      <c r="O2">
-        <v>7.9019509646274173</v>
-      </c>
-      <c r="P2">
-        <v>11.169136372810442</v>
-      </c>
-      <c r="Q2">
-        <v>-29.02965430478389</v>
-      </c>
-      <c r="R2">
-        <v>2.0966754007158954</v>
-      </c>
-      <c r="S2">
-        <v>14.126553160511293</v>
-      </c>
-      <c r="T2">
-        <v>-7.8981858416339605</v>
-      </c>
-      <c r="U2">
-        <v>-5.1066999065874938</v>
-      </c>
-      <c r="V2">
-        <v>-3.1367821843387276</v>
-      </c>
-      <c r="W2">
-        <v>15.131254357542446</v>
-      </c>
-      <c r="X2">
-        <v>-4.4854737296422229</v>
-      </c>
-      <c r="Y2">
-        <v>-8.122759048556162</v>
-      </c>
-      <c r="Z2">
-        <v>6.1387973610038671E-2</v>
-      </c>
-      <c r="AA2">
-        <v>7.5016122849854128</v>
-      </c>
-      <c r="AB2">
-        <v>34.627289358377254</v>
-      </c>
-      <c r="AC2">
-        <v>10.232247360264608</v>
-      </c>
-      <c r="AD2">
-        <v>12.709341133767538</v>
-      </c>
-      <c r="AE2">
-        <v>-3.095631704789696</v>
-      </c>
-      <c r="AF2">
-        <v>0.79116328214178111</v>
-      </c>
-      <c r="AG2">
-        <v>4.1917609432191796</v>
-      </c>
-      <c r="AH2">
-        <v>3.7663773956039677</v>
-      </c>
-      <c r="AI2">
-        <v>33.658673724654591</v>
-      </c>
-      <c r="AJ2">
-        <v>7.1509253158262709</v>
-      </c>
-      <c r="AK2">
-        <v>7.9549408642966739</v>
-      </c>
-      <c r="AL2">
-        <v>-7.5170117315884113</v>
-      </c>
-      <c r="AM2">
-        <v>11.458541872764698</v>
-      </c>
-      <c r="AN2">
-        <v>1.9831972466025434</v>
-      </c>
       <c r="AO2">
-        <v>-3.9763615708626219</v>
+        <v>-3.9763615198924924</v>
       </c>
       <c r="AP2">
-        <v>1.4784659284268571</v>
+        <v>1.4784659571651844</v>
       </c>
       <c r="AQ2">
-        <v>1.933826213282515</v>
+        <v>1.933826288135009</v>
       </c>
       <c r="AR2">
-        <v>4.893971851046814</v>
+        <v>4.8939718639980185</v>
       </c>
       <c r="AS2">
-        <v>-1.4088313711456806</v>
+        <v>-1.4088313103200676</v>
       </c>
       <c r="AT2">
-        <v>-4.5825179401501259</v>
+        <v>-4.5825179046690607</v>
       </c>
       <c r="AU2">
-        <v>-0.26660270480022064</v>
+        <v>-0.2666026780068762</v>
       </c>
       <c r="AV2">
-        <v>6.281962451735069</v>
+        <v>6.2819625284052165</v>
       </c>
       <c r="AW2">
-        <v>-2.6092869448206102</v>
+        <v>-2.6092868889464569</v>
       </c>
       <c r="AX2">
-        <v>-3.5094341736970875</v>
+        <v>-3.5094341069152506</v>
       </c>
       <c r="AY2">
-        <v>-2.3733183865646481</v>
+        <v>-2.3733183440437813</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>15.859095376890963</v>
+      </c>
+      <c r="C3">
+        <v>0.41694341367269772</v>
+      </c>
+      <c r="D3">
+        <v>-6.7188544225234921</v>
+      </c>
+      <c r="E3">
+        <v>-10.807312932658732</v>
+      </c>
+      <c r="F3">
+        <v>18.915950211132667</v>
+      </c>
+      <c r="G3">
+        <v>1.3657968698438196</v>
+      </c>
+      <c r="H3">
+        <v>3.8221198071729248</v>
+      </c>
+      <c r="I3">
+        <v>2.1082521414964503</v>
+      </c>
+      <c r="J3">
+        <v>1.7220237076587352</v>
+      </c>
+      <c r="K3">
+        <v>18.750961584047872</v>
+      </c>
+      <c r="L3">
+        <v>-1.0448889594869968</v>
+      </c>
+      <c r="M3">
+        <v>5.1420530975302938</v>
+      </c>
+      <c r="N3">
         <v>52.404265362008033</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>6.8979008167237339</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>-32.27410635340118</v>
+      </c>
+      <c r="Q3">
+        <v>1.844440152222603</v>
+      </c>
+      <c r="R3">
+        <v>13.079370558231119</v>
+      </c>
+      <c r="S3">
+        <v>13.41189721667817</v>
+      </c>
+      <c r="T3">
+        <v>13.162487504397774</v>
+      </c>
+      <c r="U3">
+        <v>-3.5463899120107669</v>
+      </c>
+      <c r="V3">
+        <v>-9.4842522021469904</v>
+      </c>
+      <c r="W3">
+        <v>0.37690635379283322</v>
+      </c>
+      <c r="X3">
+        <v>14.083177315370307</v>
+      </c>
+      <c r="Y3">
+        <v>8.7881274145472048</v>
+      </c>
+      <c r="Z3">
+        <v>-5.2320930166972346</v>
+      </c>
+      <c r="AA3">
+        <v>3.7488077368994084</v>
+      </c>
+      <c r="AB3">
+        <v>10.734318673841557</v>
+      </c>
+      <c r="AC3">
+        <v>3.0785519961525836</v>
+      </c>
+      <c r="AD3">
+        <v>-0.22285253105329161</v>
+      </c>
+      <c r="AE3">
+        <v>-0.36057731156998329</v>
+      </c>
+      <c r="AF3">
+        <v>3.546400699780861</v>
+      </c>
+      <c r="AG3">
+        <v>6.1067372654886469</v>
+      </c>
+      <c r="AH3">
+        <v>4.1180949674990188</v>
+      </c>
+      <c r="AI3">
+        <v>6.9288955565958474</v>
+      </c>
+      <c r="AJ3">
+        <v>-0.77232970492178765</v>
+      </c>
+      <c r="AK3">
+        <v>12.533103861558118</v>
+      </c>
+      <c r="AL3">
+        <v>-5.6048029390457543</v>
+      </c>
+      <c r="AM3">
         <v>-10.319453557895372</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>12.786249941062096</v>
       </c>
-      <c r="F3">
-        <v>18.915950183209418</v>
-      </c>
-      <c r="G3">
-        <v>1.3657968543210472</v>
-      </c>
-      <c r="H3">
-        <v>3.8221197557240316</v>
-      </c>
-      <c r="I3">
-        <v>2.1082521135393222</v>
-      </c>
-      <c r="J3">
-        <v>1.7220236761669696</v>
-      </c>
-      <c r="K3">
-        <v>18.750961550671178</v>
-      </c>
-      <c r="L3">
-        <v>-1.044888994153041</v>
-      </c>
-      <c r="M3">
-        <v>5.141953949350949</v>
-      </c>
-      <c r="N3">
-        <v>52.404265311360746</v>
-      </c>
-      <c r="O3">
-        <v>6.8979007887781165</v>
-      </c>
-      <c r="P3">
-        <v>-32.274106392369106</v>
-      </c>
-      <c r="Q3">
-        <v>1.8444401176332974</v>
-      </c>
-      <c r="R3">
-        <v>13.079370523698856</v>
-      </c>
-      <c r="S3">
-        <v>13.411897194574635</v>
-      </c>
-      <c r="T3">
-        <v>13.162487471718208</v>
-      </c>
-      <c r="U3">
-        <v>-3.5463899286950209</v>
-      </c>
-      <c r="V3">
-        <v>-9.4842522215066367</v>
-      </c>
-      <c r="W3">
-        <v>0.37690626203092847</v>
-      </c>
-      <c r="X3">
-        <v>14.083177265035232</v>
-      </c>
-      <c r="Y3">
-        <v>8.7881273857761641</v>
-      </c>
-      <c r="Z3">
-        <v>-5.2320930406515913</v>
-      </c>
-      <c r="AA3">
-        <v>3.748807688789185</v>
-      </c>
-      <c r="AB3">
-        <v>10.734318626269044</v>
-      </c>
-      <c r="AC3">
-        <v>3.0785519396085022</v>
-      </c>
-      <c r="AD3">
-        <v>-0.22285259858725226</v>
-      </c>
-      <c r="AE3">
-        <v>-0.36057731001326943</v>
-      </c>
-      <c r="AF3">
-        <v>3.5464006482480102</v>
-      </c>
-      <c r="AG3">
-        <v>6.1067372047022559</v>
-      </c>
-      <c r="AH3">
-        <v>4.1180949412553218</v>
-      </c>
-      <c r="AI3">
-        <v>6.9288955014707199</v>
-      </c>
-      <c r="AJ3">
-        <v>-0.772329767024587</v>
-      </c>
-      <c r="AK3">
-        <v>12.533103840670776</v>
-      </c>
-      <c r="AL3">
-        <v>-5.604802983546108</v>
-      </c>
-      <c r="AM3">
-        <v>-10.319453639264168</v>
-      </c>
-      <c r="AN3">
-        <v>12.7862498909127</v>
-      </c>
       <c r="AO3">
-        <v>22.029259071438474</v>
+        <v>22.029259152321401</v>
       </c>
       <c r="AP3">
-        <v>-8.1604882330284738</v>
+        <v>-8.1604881783403584</v>
       </c>
       <c r="AQ3">
-        <v>-3.4107221698421029</v>
+        <v>-3.4107221288695655</v>
       </c>
       <c r="AR3">
-        <v>0.42984947914041527</v>
+        <v>0.42984951426439011</v>
       </c>
       <c r="AS3">
-        <v>13.011285845343423</v>
+        <v>13.011285885516713</v>
       </c>
       <c r="AT3">
-        <v>-0.3905643427922314</v>
+        <v>-0.39056428209394767</v>
       </c>
       <c r="AU3">
-        <v>-2.2758425953000767</v>
+        <v>-2.2758425279772325</v>
       </c>
       <c r="AV3">
-        <v>-2.7826427924387929</v>
+        <v>-2.7826427492307175</v>
       </c>
       <c r="AW3">
-        <v>2.3940362096141143E-2</v>
+        <v>2.3940435430063189E-2</v>
       </c>
       <c r="AX3">
-        <v>-30.721257620187799</v>
+        <v>-30.721257572060722</v>
       </c>
       <c r="AY3">
-        <v>-17.677348519722415</v>
+        <v>-17.677348489273925</v>
       </c>
     </row>
   </sheetData>
